--- a/cluster_profiling.xlsx
+++ b/cluster_profiling.xlsx
@@ -46,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,34 +59,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -462,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB7"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,1079 +443,1734 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PointsRedeemedRatio</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>FlightsWithCompanionsRatio</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AvgDistancePerFlight</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>KMPerRedeemedPoint</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>UnredeemedPoints</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>AvgMonthlyFlights</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
-      <c r="AD1" s="1" t="n"/>
-      <c r="AE1" s="1" t="n"/>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>sr_jan</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="n"/>
-      <c r="AH1" s="1" t="n"/>
-      <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="n"/>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>sr_feb</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="n"/>
-      <c r="AM1" s="1" t="n"/>
-      <c r="AN1" s="1" t="n"/>
-      <c r="AO1" s="1" t="n"/>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>sr_mar</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="n"/>
-      <c r="AR1" s="1" t="n"/>
-      <c r="AS1" s="1" t="n"/>
-      <c r="AT1" s="1" t="n"/>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>sr_apr</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="n"/>
-      <c r="AW1" s="1" t="n"/>
-      <c r="AX1" s="1" t="n"/>
-      <c r="AY1" s="1" t="n"/>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>sr_may</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="n"/>
-      <c r="BB1" s="1" t="n"/>
-      <c r="BC1" s="1" t="n"/>
-      <c r="BD1" s="1" t="n"/>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>sr_jun</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="n"/>
-      <c r="BG1" s="1" t="n"/>
-      <c r="BH1" s="1" t="n"/>
-      <c r="BI1" s="1" t="n"/>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>sr_jul</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="n"/>
-      <c r="BL1" s="1" t="n"/>
-      <c r="BM1" s="1" t="n"/>
-      <c r="BN1" s="1" t="n"/>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>sr_aug</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="n"/>
-      <c r="BQ1" s="1" t="n"/>
-      <c r="BR1" s="1" t="n"/>
-      <c r="BS1" s="1" t="n"/>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>sr_sep</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="n"/>
-      <c r="BV1" s="1" t="n"/>
-      <c r="BW1" s="1" t="n"/>
-      <c r="BX1" s="1" t="n"/>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>sr_oct</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="n"/>
-      <c r="CA1" s="1" t="n"/>
-      <c r="CB1" s="1" t="n"/>
-      <c r="CC1" s="1" t="n"/>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>sr_nov</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="n"/>
-      <c r="CF1" s="1" t="n"/>
-      <c r="CG1" s="1" t="n"/>
-      <c r="CH1" s="1" t="n"/>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>sr_dec</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="n"/>
-      <c r="CK1" s="1" t="n"/>
-      <c r="CL1" s="1" t="n"/>
-      <c r="CM1" s="1" t="n"/>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>Time on Program</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="n"/>
-      <c r="CP1" s="1" t="n"/>
-      <c r="CQ1" s="1" t="n"/>
-      <c r="CR1" s="1" t="n"/>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>Reenroll</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="n"/>
-      <c r="CU1" s="1" t="n"/>
-      <c r="CV1" s="1" t="n"/>
-      <c r="CW1" s="1" t="n"/>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>Customer Lifetime Value</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="n"/>
-      <c r="CZ1" s="1" t="n"/>
-      <c r="DA1" s="1" t="n"/>
-      <c r="DB1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="AE2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="AF2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="AH2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="AI2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="AK2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="AM2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="AN2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="AO2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="AP2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="AQ2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="AR2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="AS2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="AT2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="AU2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="AV2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="AW2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="AX2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="AY2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="AZ2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="BA2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="BB2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="BC2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="BD2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="BE2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="BF2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="BG2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="BH2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="BI2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="BJ2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="BK2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="BL2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="BM2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="BN2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="BO2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="BP2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="BQ2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="BR2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="BS2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="BT2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="BU2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="BV2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="BW2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="BX2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="BY2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="BZ2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="CA2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="CB2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="CC2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="CD2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="CE2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="CF2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="CG2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="CH2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="CI2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="CJ2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="CK2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="CL2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="CM2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="CN2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="CO2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="CP2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="CQ2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="CR2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="CS2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="CT2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="CU2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="CV2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="CW2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="CX2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="CY2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="CZ2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="DA2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="DB2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Merged_Clusters_2</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PointsRedeemedRatio_mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PointsRedeemedRatio_median</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PointsRedeemedRatio_std</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PointsRedeemedRatio_min</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PointsRedeemedRatio_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>FlightsWithCompanionsRatio_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>FlightsWithCompanionsRatio_median</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>FlightsWithCompanionsRatio_std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FlightsWithCompanionsRatio_min</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>FlightsWithCompanionsRatio_max</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>AvgDistancePerFlight_mean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AvgDistancePerFlight_median</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AvgDistancePerFlight_std</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AvgDistancePerFlight_min</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>AvgDistancePerFlight_max</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>KMPerRedeemedPoint_mean</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>KMPerRedeemedPoint_median</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>KMPerRedeemedPoint_std</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>KMPerRedeemedPoint_min</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>KMPerRedeemedPoint_max</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>UnredeemedPoints_mean</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>UnredeemedPoints_median</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>UnredeemedPoints_std</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>UnredeemedPoints_min</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>UnredeemedPoints_max</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>HasBonus_mean</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>HasBonus_median</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>HasBonus_std</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>HasBonus_min</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>HasBonus_max</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>AvgMonthlyFlights_mean</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>AvgMonthlyFlights_median</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AvgMonthlyFlights_std</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AvgMonthlyFlights_min</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>AvgMonthlyFlights_max</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jan_mean</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jan_median</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jan_std</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jan_min</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jan_max</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>sr_feb_mean</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>sr_feb_median</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>sr_feb_std</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>sr_feb_min</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>sr_feb_max</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>sr_mar_mean</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>sr_mar_median</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>sr_mar_std</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>sr_mar_min</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>sr_mar_max</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>sr_apr_mean</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>sr_apr_median</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>sr_apr_std</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>sr_apr_min</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>sr_apr_max</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>sr_may_mean</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>sr_may_median</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>sr_may_std</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>sr_may_min</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>sr_may_max</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jun_mean</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jun_median</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jun_std</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jun_min</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jun_max</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jul_mean</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jul_median</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jul_std</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jul_min</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>sr_jul_max</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>sr_aug_mean</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>sr_aug_median</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>sr_aug_std</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>sr_aug_min</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>sr_aug_max</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>sr_sep_mean</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>sr_sep_median</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>sr_sep_std</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>sr_sep_min</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>sr_sep_max</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>sr_oct_mean</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>sr_oct_median</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>sr_oct_std</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>sr_oct_min</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>sr_oct_max</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>sr_nov_mean</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>sr_nov_median</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>sr_nov_std</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>sr_nov_min</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>sr_nov_max</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>sr_dec_mean</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>sr_dec_median</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>sr_dec_std</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>sr_dec_min</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>sr_dec_max</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Income_mean</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Income_median</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Income_std</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Income_min</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Income_max</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>EnrollmentMonth_mean</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>EnrollmentMonth_median</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>EnrollmentMonth_std</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>EnrollmentMonth_min</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>EnrollmentMonth_max</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Time on Program_mean</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Time on Program_median</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Time on Program_std</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Time on Program_min</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Time on Program_max</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Reenroll_mean</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Reenroll_median</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Reenroll_std</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Reenroll_min</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Reenroll_max</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Lifetime Value_mean</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Lifetime Value_median</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Lifetime Value_std</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Lifetime Value_min</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Lifetime Value_max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3221317757415371</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2724097788125728</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2986621303743025</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.467983813377767</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2304212860722644</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.244360902255639</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1505052562886859</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2664.260951491585</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2075.32380952381</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5079.001721949763</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>42026.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>28.73545185901884</v>
+      </c>
+      <c r="R2" t="n">
+        <v>22.65146492434663</v>
+      </c>
+      <c r="S2" t="n">
+        <v>31.6822546636592</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>164.4595488136912</v>
+      </c>
+      <c r="V2" t="n">
+        <v>18855.56923076923</v>
+      </c>
+      <c r="W2" t="n">
+        <v>18382</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13940.72006633045</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>50501</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.1240347345892085</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3.714957264957265</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2.222093512565345</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7.388888888888889</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.06578770769851176</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0305676855895196</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.1316532633576001</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.05671648011959143</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0428571428571428</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.06188662697162484</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.06770101489829564</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.06578947368421049</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.06919254049804459</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.05393872830473759</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0376344086021505</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.06099987252608573</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.05575329290753746</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0288461538461538</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.06348868870470203</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.2048192771084337</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.08875207042296429</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.09848504521411205</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.09720069568648187</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0893617021276595</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.09598416366338529</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.09694110524407766</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.06382978723404251</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.09889284304157289</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.07545730369725735</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.0612244897959183</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.08727206677620462</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.07378955785939975</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.056390977443609</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.07778990350005928</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.08322549984161039</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.0607734806629834</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.1044795131802251</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.09242885101184217</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.06726457399103131</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.1099017039665684</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>31218.33846153846</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>26676</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>27063.62951411735</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>97732</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>6.769230769230769</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>7</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>3.10629014445503</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>12</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1064.123076923077</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1091</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>719.1742119371249</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>2342</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.1240347345892085</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>8128.022461538461</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>5841.529999999999</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>6354.533039316558</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>2397.04</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>34039.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2875431562138057</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1286664724164724</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7240593569560531</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.26771653543307</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2224135264867701</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.219298245614035</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1742831894337753</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1983.485565495571</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1963.477272727273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1882.197319138163</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>43857.7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>19.08093222321586</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9.449015574493094</v>
+      </c>
+      <c r="S3" t="n">
+        <v>26.85344868998433</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>195.1114778694674</v>
+      </c>
+      <c r="V3" t="n">
+        <v>13932.28244851691</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10641</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13117.91066101973</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>61151</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.04817683733232572</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2141599747846134</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.639571131683355</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.305555555555556</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.197720466534017</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.52777777777778</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.04351111345146192</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0105820105820105</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.08147358699233294</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.04335446944488189</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.008510638297872301</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.08307632759422449</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.05285517602166417</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0109890109890109</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.08175771241038281</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.04285568942039389</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.008695652173913</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0608378984508804</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.05099231743334533</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.07116232327632172</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.7317073170731707</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.05902257734721791</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0811600561462326</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.07515858748613982</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.024390243902439</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.09953040809279821</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.07566284450059071</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.1020792043290203</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.9230769230769232</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.07399118646799506</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.0364372469635627</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.1048495237640044</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.08614719346286538</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.0458715596330275</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.1283537424877908</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.1010080795557258</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.050251256281407</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.1638946340833002</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.1573338317217175</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.08860759493670881</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.22165429983248</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>37792.84262233138</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>34087</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>30421.73126991275</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>99981</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>9.313432835820896</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1.962566102770163</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>477.2807481579445</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>422.9999999999999</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>356.1142867989539</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1256</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.02909503117324768</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.1680888107495294</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>8023.262718685056</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>5846.11</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>6816.968693247785</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1898.01</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>83325.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009683014324065136</v>
+        <v>0.2910487787245024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008188412286200411</v>
+        <v>0.254978331230457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00897753622663584</v>
+        <v>0.2443991121615613</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04412637734887016</v>
+        <v>2.94951871657754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2304212860722644</v>
+        <v>0.2365473201908594</v>
       </c>
       <c r="H4" t="n">
-        <v>0.244360902255639</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1505052562886859</v>
+        <v>0.0969671981412734</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2036.231309388707</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2059.871428571429</v>
+      </c>
+      <c r="N4" t="n">
+        <v>631.1117259072103</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5108.625</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>35.63871811771075</v>
+      </c>
+      <c r="R4" t="n">
+        <v>26.92793956795187</v>
+      </c>
+      <c r="S4" t="n">
+        <v>33.86909092677784</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>254.2687043795621</v>
+      </c>
+      <c r="V4" t="n">
+        <v>26210.25142969828</v>
+      </c>
+      <c r="W4" t="n">
+        <v>27177</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12202.7275172739</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>65209</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.009268388877933346</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.09583473789150347</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.06074784932843232</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.04731948573508894</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1158063856962349</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.9582376640817918</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1130121456713907</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.08908475378288568</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.124601471270193</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.6467943006001737</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2891559329351658</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.2818936036436688</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.2137852147146936</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.7744483123495223</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.3899080511325408</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.4373177842565597</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.2332226427182286</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.7755102040816325</v>
-      </c>
       <c r="AF4" t="n">
-        <v>0.06578770769851176</v>
+        <v>4.979080391770196</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0305676855895196</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1316532633576001</v>
+        <v>1.542641070554138</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
+        <v>9.444444444444445</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.06290672436876762</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0558659217877094</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.05272275323220146</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.06150836590784861</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0542635658914728</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.05707648205357713</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" t="n">
-        <v>0.05671648011959143</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.0428571428571428</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.06188662697162484</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.2619047619047619</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.06770101489829564</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.06578947368421049</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.06919254049804459</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
+        <v>0.08082303176682164</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0738636363636363</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0647406236680195</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.06877327281954447</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0635838150289017</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.05277697067777325</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.08229174172634046</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.06220876474260293</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
         <v>0.3783783783783784</v>
       </c>
-      <c r="AU4" t="n">
-        <v>0.05393872830473759</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.0376344086021505</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.06099987252608573</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.05575329290753746</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.0288461538461538</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.06348868870470203</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.2048192771084337</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.08875207042296429</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.09848504521411205</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.48</v>
-      </c>
       <c r="BJ4" t="n">
-        <v>0.09720069568648187</v>
+        <v>0.09919407477791115</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0893617021276595</v>
+        <v>0.0924855491329479</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.09598416366338529</v>
+        <v>0.07465517754175398</v>
       </c>
       <c r="BM4" t="n">
         <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.09694110524407766</v>
+        <v>0.1099491955797014</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.06382978723404251</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.09889284304157289</v>
+        <v>0.07784822576224452</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4392523364485981</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.07545730369725735</v>
+        <v>0.09424257679572834</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0612244897959183</v>
+        <v>0.0885416666666666</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.08727206677620462</v>
+        <v>0.07107005462792119</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.5</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.07378955785939975</v>
+        <v>0.07583144954353629</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.056390977443609</v>
+        <v>0.0710059171597633</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.07778990350005928</v>
+        <v>0.05692467299572249</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.08322549984161039</v>
+        <v>0.06948771330755904</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0607734806629834</v>
+        <v>0.0635838150289017</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.1044795131802251</v>
+        <v>0.05361063165312113</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.625</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.09242885101184217</v>
+        <v>0.06559109807246269</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.06726457399103131</v>
+        <v>0.0610328638497652</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.1099017039665684</v>
+        <v>0.05112570549426357</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.5</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.4316929318146357</v>
+        <v>0.08680560644795654</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.4425963488843813</v>
+        <v>0.0807453416149068</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.2917542441935598</v>
+        <v>0.06507442111129125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.01663286004056795</v>
+        <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.9501014198782961</v>
+        <v>0.375</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.01538461538461539</v>
+        <v>37786.23703411556</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>33738</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1240347345892085</v>
+        <v>30370.60240606881</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>1</v>
+        <v>99981</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.07651005382512613</v>
+        <v>8.258134490238612</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.04842990753600416</v>
+        <v>8</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.07803927646584381</v>
+        <v>2.333661654230446</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.006128529019173774</v>
+        <v>4</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.3947204729810136</v>
+        <v>12</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>1903.219680536383</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1938</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>365.6169839461494</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>1159</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>2465</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>7927.833117728259</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>5746.149999999999</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>6808.675202617003</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>2004.35</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>67907.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008643309074355817</v>
+        <v>0.2849473595015315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003867607573228874</v>
+        <v>0.2227917911371149</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0217646244576139</v>
+        <v>0.3702617915430209</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>11.29656862745098</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2224135264867701</v>
+        <v>0.2272658639535862</v>
       </c>
       <c r="H5" t="n">
-        <v>0.219298245614035</v>
+        <v>0.2298136645962732</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1742831894337753</v>
+        <v>0.1212237611687213</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1552,58 +2179,58 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04522548071366193</v>
+        <v>1977.442691188542</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04476927136460127</v>
+        <v>2017.191764705882</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04291600606365963</v>
+        <v>1087.742229316013</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>28710.90000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07504239371406328</v>
+        <v>28.37267561326078</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03716153585455796</v>
+        <v>21.22000942253332</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1056105144968949</v>
+        <v>31.77165496300998</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7673436585346061</v>
+        <v>216.9889847118777</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2136558212595947</v>
+        <v>20873.18470301058</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1631829962121793</v>
+        <v>21647</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2011671803128359</v>
+        <v>13604.80919083529</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.9377693263199866</v>
+        <v>59417</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2770395356868827</v>
+        <v>0.02522375915378356</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2419825072886297</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2306645387615871</v>
+        <v>0.1568168454060949</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1612,28 +2239,28 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04351111345146192</v>
+        <v>3.949805623361359</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0105820105820105</v>
+        <v>4.472222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.08147358699233294</v>
+        <v>2.106967871273016</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.04335446944488189</v>
+        <v>0.0480472585476337</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.008510638297872301</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.08307632759422449</v>
+        <v>0.08435866822761606</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1642,13 +2269,13 @@
         <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.05285517602166417</v>
+        <v>0.04663849977721059</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0109890109890109</v>
+        <v>0.0331125827814569</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.08175771241038281</v>
+        <v>0.05743617854213287</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -1657,58 +2284,58 @@
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.04285568942039389</v>
+        <v>0.0673558586587102</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.008695652173913</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0608378984508804</v>
+        <v>0.0762169183702751</v>
       </c>
       <c r="AX5" t="n">
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.05099231743334533</v>
+        <v>0.06072956146656243</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>0.048076923076923</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.07116232327632172</v>
+        <v>0.06435359057447498</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.7317073170731707</v>
+        <v>1</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.05902257734721791</v>
+        <v>0.07925867461644584</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>0.0669856459330143</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0811600561462326</v>
+        <v>0.07700046367825968</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.8205128205128205</v>
+        <v>1</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.07515858748613982</v>
+        <v>0.1025066905788918</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.024390243902439</v>
+        <v>0.0913705583756345</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.09953040809279821</v>
+        <v>0.09404474926734963</v>
       </c>
       <c r="BM5" t="n">
         <v>0</v>
@@ -1717,28 +2344,28 @@
         <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.07566284450059071</v>
+        <v>0.1110646979346555</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0297029702970297</v>
+        <v>0.1005917159763313</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.1020792043290203</v>
+        <v>0.0987164638373528</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.07399118646799506</v>
+        <v>0.09748406431255903</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0364372469635627</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.1048495237640044</v>
+        <v>0.08807274785133765</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -1747,13 +2374,13 @@
         <v>1</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.08614719346286538</v>
+        <v>0.07657690104530397</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0458715596330275</v>
+        <v>0.0648648648648648</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.1283537424877908</v>
+        <v>0.0749911693335291</v>
       </c>
       <c r="CB5" t="n">
         <v>0</v>
@@ -1762,745 +2389,127 @@
         <v>1</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.1010080795557258</v>
+        <v>0.07236384631560429</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.050251256281407</v>
+        <v>0.0625</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.1638946340833002</v>
+        <v>0.06799865707928791</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
       </c>
       <c r="CH5" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.06620974970928353</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.055813953488372</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.06361360555067655</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.08714255342444555</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.07653061224489791</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.08252871379203001</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
         <v>1</v>
       </c>
-      <c r="CI5" t="n">
-        <v>0.1573338317217175</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0.08860759493670881</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0.22165429983248</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
+      <c r="CS5" t="n">
+        <v>37725.27664768104</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>34695</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>30319.36150165082</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>99960</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>3.082506102522376</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>1.503098438674125</v>
+      </c>
+      <c r="DA5" t="n">
         <v>1</v>
       </c>
-      <c r="CN5" t="n">
-        <v>0.193623021565089</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0.1716024340770791</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0.144468270506675</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0.5095334685598377</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0.02909503117324768</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0.1680888107495294</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="n">
+      <c r="DB5" t="n">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>951.8818551668023</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>939</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>615.7153318121855</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>2190</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.007160292921074044</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.08432188443058312</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="n">
         <v>1</v>
       </c>
-      <c r="CX5" t="n">
-        <v>0.07522351168513799</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0.04848615397992099</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0.08371839460426862</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.008748685182961371</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.007664437412134446</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.007346434850773569</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08866008923203493</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2365473201908594</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2376237623762376</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0969671981412734</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.04642813712047617</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.04696715579183196</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.01438998684169963</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.1164818264523676</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.1401616380776091</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.1059034757488477</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.1332019644707018</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.4019422384900594</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.4167676241009677</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1871325663217329</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.5225856970954141</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.5393586005830903</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.1619098499706963</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.9912536443148686</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.06290672436876762</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.0558659217877094</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.05272275323220146</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.06150836590784861</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.0542635658914728</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.05707648205357713</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.08082303176682164</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.0738636363636363</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.0647406236680195</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.06877327281954447</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.0635838150289017</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.05277697067777325</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0.08229174172634046</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.0763888888888889</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.06220876474260293</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0.09919407477791115</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0.0924855491329479</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0.07465517754175398</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0.1099491955797014</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0.1065573770491803</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0.07784822576224452</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0.4392523364485981</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0.09424257679572834</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0.0885416666666666</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.07107005462792119</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0.07583144954353629</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0.0710059171597633</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0.05692467299572249</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0.3238095238095238</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0.06948771330755904</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0.0635838150289017</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0.05361063165312113</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0.06559109807246269</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0.0610328638497652</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0.05112570549426357</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0.08680560644795654</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0.0807453416149068</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0.06507442111129125</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0.7720972334833198</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0.7862068965517242</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0.1483233200592892</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0.470182555780933</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>0.07405155192570088</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0.04725855692011174</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>0.08361654321657454</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>0.001305949093038373</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>0.8106519957601479</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.008565281575548995</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.006696936680334577</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01112976272803876</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.339565494836988</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2272658639535862</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2298136645962732</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1212237611687213</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.04508769705635594</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.04599401620937447</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.02480162501262068</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.6546376120954817</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1115854020749136</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.08345505780710215</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.1249530690005109</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.8533845533265678</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.320096684552908</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.3319633792881351</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.2086339184903204</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.9111779048904293</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.4145568584285974</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.4693877551020407</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.2211394850315699</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.9533527696793002</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.0480472585476337</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.08435866822761606</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.04663849977721059</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.0331125827814569</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.05743617854213287</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.0673558586587102</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.0526315789473684</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.0762169183702751</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.06072956146656243</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0.048076923076923</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0.06435359057447498</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0.07925867461644584</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.0669856459330143</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0.07700046367825968</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0.1025066905788918</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0.0913705583756345</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0.09404474926734963</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0.1110646979346555</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0.1005917159763313</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0.0987164638373528</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0.09748406431255903</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0.0872093023255814</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0.08807274785133765</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0.07657690104530397</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0.0648648648648648</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0.0749911693335291</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0.07236384631560429</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0.06799865707928791</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0.06620974970928353</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0.055813953488372</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0.06361360555067655</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0.08714255342444555</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>0.07653061224489791</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0.08252871379203001</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0.3861589676133072</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0.3809330628803245</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0.2497830960698519</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0.8884381338742393</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>0.007160292921074044</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>0.08432188443058312</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0.07495915042829475</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0.04739720808863162</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>0.08524207072747313</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>1</v>
+      <c r="DM5" t="n">
+        <v>8001.736476810414</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>5757.44</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>6941.037632692133</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>1898.01</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>83325.38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="CI1:CM1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="CX1:DB1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="BT1:BX1"/>
-    <mergeCell ref="CN1:CR1"/>
-    <mergeCell ref="BY1:CC1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
